--- a/Time 3D/Time 3D — копия.xlsx
+++ b/Time 3D/Time 3D — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\Time 3D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD71C42A-54C4-48E7-88ED-9DF2E43617C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773B61FA-AA75-462E-A363-1D1CE73E6BD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -237,36 +237,36 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -552,7 +552,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,27 +564,27 @@
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="21" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="3">
         <v>100</v>
       </c>
@@ -620,8 +620,12 @@
       <c r="C3" s="4">
         <v>3.1829999999999998</v>
       </c>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
+      <c r="D3" s="4">
+        <v>14.677</v>
+      </c>
+      <c r="E3" s="4">
+        <v>48.676000000000002</v>
+      </c>
       <c r="F3" s="4"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -636,8 +640,12 @@
       <c r="C4" s="4">
         <v>2.8519999999999999</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="D4" s="4">
+        <v>14.121</v>
+      </c>
+      <c r="E4" s="4">
+        <v>46.447000000000003</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -652,8 +660,12 @@
       <c r="C5" s="4">
         <v>2.8460000000000001</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="D5" s="4">
+        <v>12.884</v>
+      </c>
+      <c r="E5" s="4">
+        <v>46.103000000000002</v>
+      </c>
       <c r="F5" s="4"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -668,8 +680,12 @@
       <c r="C6" s="4">
         <v>2.7629999999999999</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4">
+        <v>12.618</v>
+      </c>
+      <c r="E6" s="4">
+        <v>47.232999999999997</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -684,8 +700,12 @@
       <c r="C7" s="4">
         <v>2.76</v>
       </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
+      <c r="D7" s="4">
+        <v>12.635999999999999</v>
+      </c>
+      <c r="E7" s="4">
+        <v>48.374000000000002</v>
+      </c>
       <c r="F7" s="4"/>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -701,8 +721,12 @@
       <c r="C8" s="4">
         <v>2.7549999999999999</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
+      <c r="D8" s="4">
+        <v>14.051</v>
+      </c>
+      <c r="E8" s="4">
+        <v>48.396999999999998</v>
+      </c>
       <c r="F8" s="4"/>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -717,8 +741,12 @@
       <c r="C9" s="4">
         <v>2.7629999999999999</v>
       </c>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="D9" s="4">
+        <v>14.329000000000001</v>
+      </c>
+      <c r="E9" s="4">
+        <v>50.960999999999999</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
@@ -733,8 +761,12 @@
       <c r="C10" s="4">
         <v>2.7679999999999998</v>
       </c>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="D10" s="4">
+        <v>14.503</v>
+      </c>
+      <c r="E10" s="4">
+        <v>47.338999999999999</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
@@ -749,8 +781,12 @@
       <c r="C11" s="4">
         <v>2.7690000000000001</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="D11" s="4">
+        <v>13.654999999999999</v>
+      </c>
+      <c r="E11" s="4">
+        <v>45.575000000000003</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -765,8 +801,12 @@
       <c r="C12" s="4">
         <v>2.7639999999999998</v>
       </c>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="D12" s="4">
+        <v>13.427</v>
+      </c>
+      <c r="E12" s="4">
+        <v>45.347000000000001</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -774,54 +814,54 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="16" t="s">
+      <c r="A15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="20" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="21" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="21"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="17"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="3">
         <v>100</v>
       </c>
@@ -856,13 +896,13 @@
         <f t="shared" ref="C17:J17" si="0">AVERAGE(C3:C12)</f>
         <v>2.8222999999999994</v>
       </c>
-      <c r="D17" s="4" t="e">
+      <c r="D17" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E17" s="4" t="e">
+        <v>13.690100000000001</v>
+      </c>
+      <c r="E17" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>47.4452</v>
       </c>
       <c r="F17" s="4" t="e">
         <f t="shared" si="0"/>
@@ -886,10 +926,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -900,108 +940,108 @@
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="15"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="16"/>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="17" t="s">
+      <c r="A22" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="11">
+      <c r="B22" s="20"/>
+      <c r="C22" s="13">
         <v>100</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="11">
+      <c r="D22" s="14"/>
+      <c r="E22" s="13">
         <v>200</v>
       </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="11">
+      <c r="F22" s="14"/>
+      <c r="G22" s="13">
         <v>300</v>
       </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="11">
+      <c r="H22" s="14"/>
+      <c r="I22" s="13">
         <v>400</v>
       </c>
-      <c r="J22" s="12"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B23" s="18"/>
-      <c r="C23" s="13" t="e">
+      <c r="C23" s="11" t="e">
         <f>C17/G17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13" t="e">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="e">
         <f>D17/H17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13" t="e">
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="e">
         <f>E17/I17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13" t="e">
+      <c r="H23" s="11"/>
+      <c r="I23" s="11" t="e">
         <f>F17/J17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="13"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="13"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="13"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="29">
@@ -1021,11 +1061,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="C21:J21"/>
     <mergeCell ref="C22:D22"/>
@@ -1034,6 +1069,11 @@
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Time 3D/Time 3D — копия.xlsx
+++ b/Time 3D/Time 3D — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\Time 3D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773B61FA-AA75-462E-A363-1D1CE73E6BD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75304E6-B529-4508-98C0-72637D799540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
   <si>
     <t>Попытка</t>
   </si>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>Оболочка Мандельброта 3D (линейный размер)</t>
+  </si>
+  <si>
+    <t>110.562</t>
+  </si>
+  <si>
+    <t>109.357</t>
+  </si>
+  <si>
+    <t>109.976</t>
+  </si>
+  <si>
+    <t>106.187</t>
+  </si>
+  <si>
+    <t>102.997</t>
+  </si>
+  <si>
+    <t>104.159</t>
   </si>
 </sst>
 </file>
@@ -237,16 +255,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -266,6 +274,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -552,7 +570,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -564,27 +582,27 @@
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="17" t="s">
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="3">
         <v>100</v>
       </c>
@@ -611,7 +629,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2">
@@ -626,14 +644,16 @@
       <c r="E3" s="4">
         <v>48.676000000000002</v>
       </c>
-      <c r="F3" s="4"/>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -646,14 +666,16 @@
       <c r="E4" s="4">
         <v>46.447000000000003</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="18"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -666,14 +688,16 @@
       <c r="E5" s="4">
         <v>46.103000000000002</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -686,14 +710,16 @@
       <c r="E6" s="4">
         <v>47.232999999999997</v>
       </c>
-      <c r="F6" s="4"/>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -706,7 +732,9 @@
       <c r="E7" s="4">
         <v>48.374000000000002</v>
       </c>
-      <c r="F7" s="4"/>
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -714,7 +742,7 @@
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+      <c r="A8" s="14"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -727,14 +755,16 @@
       <c r="E8" s="4">
         <v>48.396999999999998</v>
       </c>
-      <c r="F8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>15</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -754,7 +784,7 @@
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -774,7 +804,7 @@
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -794,7 +824,7 @@
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -814,54 +844,54 @@
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="17"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="16" t="s">
+      <c r="B15" s="15"/>
+      <c r="C15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17" t="s">
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="16"/>
       <c r="C16" s="3">
         <v>100</v>
       </c>
@@ -888,10 +918,10 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="4">
         <f t="shared" ref="C17:J17" si="0">AVERAGE(C3:C12)</f>
         <v>2.8222999999999994</v>
@@ -926,10 +956,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="15"/>
+      <c r="B18" s="11"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -940,111 +970,124 @@
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="21"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
-      <c r="G19" s="21"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="19"/>
-      <c r="C21" s="12" t="s">
+      <c r="B21" s="15"/>
+      <c r="C21" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="20"/>
-      <c r="C22" s="13">
+      <c r="B22" s="16"/>
+      <c r="C22" s="20">
         <v>100</v>
       </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="13">
+      <c r="D22" s="21"/>
+      <c r="E22" s="20">
         <v>200</v>
       </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="13">
+      <c r="F22" s="21"/>
+      <c r="G22" s="20">
         <v>300</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="13">
+      <c r="H22" s="21"/>
+      <c r="I22" s="20">
         <v>400</v>
       </c>
-      <c r="J22" s="14"/>
+      <c r="J22" s="21"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="18"/>
-      <c r="C23" s="11" t="e">
+      <c r="B23" s="14"/>
+      <c r="C23" s="18" t="e">
         <f>C17/G17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11" t="e">
+      <c r="D23" s="18"/>
+      <c r="E23" s="18" t="e">
         <f>D17/H17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11" t="e">
+      <c r="F23" s="18"/>
+      <c r="G23" s="18" t="e">
         <f>E17/I17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11" t="e">
+      <c r="H23" s="18"/>
+      <c r="I23" s="18" t="e">
         <f>F17/J17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="11"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="15"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
@@ -1061,19 +1104,6 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Time 3D/Time 3D — копия.xlsx
+++ b/Time 3D/Time 3D — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\Time 3D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75304E6-B529-4508-98C0-72637D799540}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147F17C3-ED0B-49E1-B116-F15B02EECB83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="10">
   <si>
     <t>Попытка</t>
   </si>
@@ -61,24 +61,6 @@
   </si>
   <si>
     <t>Оболочка Мандельброта 3D (линейный размер)</t>
-  </si>
-  <si>
-    <t>110.562</t>
-  </si>
-  <si>
-    <t>109.357</t>
-  </si>
-  <si>
-    <t>109.976</t>
-  </si>
-  <si>
-    <t>106.187</t>
-  </si>
-  <si>
-    <t>102.997</t>
-  </si>
-  <si>
-    <t>104.159</t>
   </si>
 </sst>
 </file>
@@ -255,6 +237,16 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -274,16 +266,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -570,7 +552,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -582,27 +564,27 @@
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="13" t="s">
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17"/>
+      <c r="B2" s="21"/>
       <c r="C2" s="3">
         <v>100</v>
       </c>
@@ -629,7 +611,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="2">
@@ -644,8 +626,8 @@
       <c r="E3" s="4">
         <v>48.676000000000002</v>
       </c>
-      <c r="F3" s="4" t="s">
-        <v>10</v>
+      <c r="F3" s="4">
+        <v>110.562</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -653,7 +635,7 @@
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="14"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="2">
         <v>2</v>
       </c>
@@ -666,8 +648,8 @@
       <c r="E4" s="4">
         <v>46.447000000000003</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>11</v>
+      <c r="F4" s="4">
+        <v>109.357</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -675,7 +657,7 @@
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="14"/>
+      <c r="A5" s="18"/>
       <c r="B5" s="2">
         <v>3</v>
       </c>
@@ -688,8 +670,8 @@
       <c r="E5" s="4">
         <v>46.103000000000002</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>12</v>
+      <c r="F5" s="4">
+        <v>109.976</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -697,7 +679,7 @@
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="14"/>
+      <c r="A6" s="18"/>
       <c r="B6" s="2">
         <v>4</v>
       </c>
@@ -710,8 +692,8 @@
       <c r="E6" s="4">
         <v>47.232999999999997</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>13</v>
+      <c r="F6" s="4">
+        <v>106.187</v>
       </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
@@ -719,7 +701,7 @@
       <c r="J6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="14"/>
+      <c r="A7" s="18"/>
       <c r="B7" s="2">
         <v>5</v>
       </c>
@@ -732,8 +714,8 @@
       <c r="E7" s="4">
         <v>48.374000000000002</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
+      <c r="F7" s="4">
+        <v>102.997</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
@@ -742,7 +724,7 @@
       <c r="N7" s="5"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="18"/>
       <c r="B8" s="2">
         <v>6</v>
       </c>
@@ -755,8 +737,8 @@
       <c r="E8" s="4">
         <v>48.396999999999998</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>15</v>
+      <c r="F8" s="4">
+        <v>104.15900000000001</v>
       </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
@@ -764,7 +746,7 @@
       <c r="J8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="18"/>
       <c r="B9" s="2">
         <v>7</v>
       </c>
@@ -777,14 +759,16 @@
       <c r="E9" s="4">
         <v>50.960999999999999</v>
       </c>
-      <c r="F9" s="4"/>
+      <c r="F9" s="4">
+        <v>106.179</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="18"/>
       <c r="B10" s="2">
         <v>8</v>
       </c>
@@ -797,14 +781,16 @@
       <c r="E10" s="4">
         <v>47.338999999999999</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="4">
+        <v>104.32599999999999</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+      <c r="A11" s="18"/>
       <c r="B11" s="2">
         <v>9</v>
       </c>
@@ -817,14 +803,16 @@
       <c r="E11" s="4">
         <v>45.575000000000003</v>
       </c>
-      <c r="F11" s="4"/>
+      <c r="F11" s="4">
+        <v>109.56</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
+      <c r="A12" s="18"/>
       <c r="B12" s="2">
         <v>10</v>
       </c>
@@ -837,61 +825,63 @@
       <c r="E12" s="4">
         <v>45.347000000000001</v>
       </c>
-      <c r="F12" s="4"/>
+      <c r="F12" s="4">
+        <v>108.973</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="12" t="s">
+      <c r="B15" s="19"/>
+      <c r="C15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="13" t="s">
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="3">
         <v>100</v>
       </c>
@@ -918,10 +908,10 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="4">
         <f t="shared" ref="C17:J17" si="0">AVERAGE(C3:C12)</f>
         <v>2.8222999999999994</v>
@@ -934,9 +924,9 @@
         <f t="shared" si="0"/>
         <v>47.4452</v>
       </c>
-      <c r="F17" s="4" t="e">
+      <c r="F17" s="4">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>107.22759999999998</v>
       </c>
       <c r="G17" s="6" t="e">
         <f t="shared" si="0"/>
@@ -956,10 +946,10 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="15"/>
       <c r="C18" s="8"/>
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
@@ -970,124 +960,111 @@
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="17"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="19" t="s">
+      <c r="B21" s="19"/>
+      <c r="C21" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="16"/>
-      <c r="C22" s="20">
+      <c r="B22" s="20"/>
+      <c r="C22" s="13">
         <v>100</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="20">
+      <c r="D22" s="14"/>
+      <c r="E22" s="13">
         <v>200</v>
       </c>
-      <c r="F22" s="21"/>
-      <c r="G22" s="20">
+      <c r="F22" s="14"/>
+      <c r="G22" s="13">
         <v>300</v>
       </c>
-      <c r="H22" s="21"/>
-      <c r="I22" s="20">
+      <c r="H22" s="14"/>
+      <c r="I22" s="13">
         <v>400</v>
       </c>
-      <c r="J22" s="21"/>
+      <c r="J22" s="14"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="18" t="e">
+      <c r="B23" s="18"/>
+      <c r="C23" s="11" t="e">
         <f>C17/G17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18" t="e">
+      <c r="D23" s="11"/>
+      <c r="E23" s="11" t="e">
         <f>D17/H17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18" t="e">
+      <c r="F23" s="11"/>
+      <c r="G23" s="11" t="e">
         <f>E17/I17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18" t="e">
+      <c r="H23" s="11"/>
+      <c r="I23" s="11" t="e">
         <f>F17/J17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="18"/>
+      <c r="J23" s="11"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+      <c r="J24" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="C21:J21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E23:F23"/>
     <mergeCell ref="A24:B24"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
@@ -1104,6 +1081,19 @@
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A22:B22"/>
     <mergeCell ref="A23:B23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="C21:J21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E23:F23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Time 3D/Time 3D — копия.xlsx
+++ b/Time 3D/Time 3D — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\Time 3D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E781E57-CEEE-4238-BFB1-07728030698D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8318845A-8CAE-4CE6-985B-A2D5F29002E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Попытка</t>
   </si>
@@ -54,9 +54,6 @@
     <t>Время CPU / время GPU</t>
   </si>
   <si>
-    <t>500 итераций</t>
-  </si>
-  <si>
     <t>OS</t>
   </si>
   <si>
@@ -91,93 +88,6 @@
   </si>
   <si>
     <t>Оболочка Мандельброта 3D</t>
-  </si>
-  <si>
-    <t>1.074</t>
-  </si>
-  <si>
-    <t>1.049</t>
-  </si>
-  <si>
-    <t>1.058</t>
-  </si>
-  <si>
-    <t>1.112</t>
-  </si>
-  <si>
-    <t>1.039</t>
-  </si>
-  <si>
-    <t>1.045</t>
-  </si>
-  <si>
-    <t>1.048</t>
-  </si>
-  <si>
-    <t>1.055</t>
-  </si>
-  <si>
-    <t>1.056</t>
-  </si>
-  <si>
-    <t>8.040</t>
-  </si>
-  <si>
-    <t>7.896</t>
-  </si>
-  <si>
-    <t>7.982</t>
-  </si>
-  <si>
-    <t>7.975</t>
-  </si>
-  <si>
-    <t>7.904</t>
-  </si>
-  <si>
-    <t>8.033</t>
-  </si>
-  <si>
-    <t>7.889</t>
-  </si>
-  <si>
-    <t>7.935</t>
-  </si>
-  <si>
-    <t>7.858</t>
-  </si>
-  <si>
-    <t>7.914</t>
-  </si>
-  <si>
-    <t>26.982</t>
-  </si>
-  <si>
-    <t>26.882</t>
-  </si>
-  <si>
-    <t>26.912</t>
-  </si>
-  <si>
-    <t>27.518</t>
-  </si>
-  <si>
-    <t>26.905</t>
-  </si>
-  <si>
-    <t>26.750</t>
-  </si>
-  <si>
-    <t>26.652</t>
-  </si>
-  <si>
-    <t>26.951</t>
-  </si>
-  <si>
-    <t>28.572</t>
-  </si>
-  <si>
-    <t>27.818</t>
   </si>
 </sst>
 </file>
@@ -432,6 +342,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -459,13 +372,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -759,7 +669,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:E17"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -769,10 +679,10 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
@@ -780,10 +690,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -791,10 +701,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -802,10 +712,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
@@ -813,10 +723,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -824,9 +734,9 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -846,7 +756,7 @@
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="24"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="5">
         <v>100</v>
       </c>
@@ -873,239 +783,339 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
-        <v>19</v>
+      <c r="A8" s="20" t="s">
+        <v>18</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="2"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
+      <c r="C8" s="2">
+        <v>1.149</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8.5649999999999995</v>
+      </c>
+      <c r="E8" s="2">
+        <v>29.14</v>
+      </c>
+      <c r="F8" s="2">
+        <v>68.013999999999996</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H8" s="4">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0.217</v>
+      </c>
+      <c r="J8" s="4">
+        <v>0.47299999999999998</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
+      <c r="A9" s="20"/>
       <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
+      <c r="C9" s="2">
+        <v>1.125</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8.484</v>
+      </c>
+      <c r="E9" s="2">
+        <v>28.547000000000001</v>
+      </c>
+      <c r="F9" s="2">
+        <v>66.463999999999999</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="4">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0.46100000000000002</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
+      <c r="A10" s="20"/>
       <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F10" s="2"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="C10" s="2">
+        <v>1.1180000000000001</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8.8889999999999993</v>
+      </c>
+      <c r="E10" s="2">
+        <v>28.8</v>
+      </c>
+      <c r="F10" s="2">
+        <v>66.683999999999997</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H10" s="4">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0.20200000000000001</v>
+      </c>
+      <c r="J10" s="4">
+        <v>0.46100000000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
+      <c r="A11" s="20"/>
       <c r="B11" s="1">
         <v>4</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="C11" s="2">
+        <v>1.117</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8.7050000000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>28.295000000000002</v>
+      </c>
+      <c r="F11" s="2">
+        <v>66.634</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H11" s="4">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="J11" s="4">
+        <v>0.46100000000000002</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
+      <c r="A12" s="20"/>
       <c r="B12" s="1">
         <v>5</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="C12" s="2">
+        <v>1.117</v>
+      </c>
+      <c r="D12" s="2">
+        <v>8.5640000000000001</v>
+      </c>
+      <c r="E12" s="2">
+        <v>28.465</v>
+      </c>
+      <c r="F12" s="2">
+        <v>66.572000000000003</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H12" s="4">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0.20100000000000001</v>
+      </c>
+      <c r="J12" s="4">
+        <v>0.46100000000000002</v>
+      </c>
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
+      <c r="A13" s="20"/>
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="C13" s="2">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="D13" s="2">
+        <v>8.4890000000000008</v>
+      </c>
+      <c r="E13" s="2">
+        <v>28.466999999999999</v>
+      </c>
+      <c r="F13" s="2">
+        <v>66.805999999999997</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H13" s="4">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="J13" s="4">
+        <v>0.46100000000000002</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="1">
         <v>7</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="C14" s="2">
+        <v>1.121</v>
+      </c>
+      <c r="D14" s="2">
+        <v>8.6110000000000007</v>
+      </c>
+      <c r="E14" s="2">
+        <v>28.654</v>
+      </c>
+      <c r="F14" s="2">
+        <v>67.119</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H14" s="4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="J14" s="4">
+        <v>0.46200000000000002</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="1">
         <v>8</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="C15" s="2">
+        <v>1.107</v>
+      </c>
+      <c r="D15" s="2">
+        <v>8.4819999999999993</v>
+      </c>
+      <c r="E15" s="2">
+        <v>28.248999999999999</v>
+      </c>
+      <c r="F15" s="2">
+        <v>67.209000000000003</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H15" s="4">
+        <v>6.3E-2</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0.19800000000000001</v>
+      </c>
+      <c r="J15" s="4">
+        <v>0.46100000000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="1">
         <v>9</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="C16" s="2">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="D16" s="2">
+        <v>8.4640000000000004</v>
+      </c>
+      <c r="E16" s="2">
+        <v>29.122</v>
+      </c>
+      <c r="F16" s="2">
+        <v>72.704999999999998</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H16" s="4">
+        <v>6.3E-2</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="J16" s="4">
+        <v>0.46100000000000002</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
+      <c r="A17" s="20"/>
       <c r="B17" s="1">
         <v>10</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="C17" s="2">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="D17" s="2">
+        <v>8.4459999999999997</v>
+      </c>
+      <c r="E17" s="2">
+        <v>28.596</v>
+      </c>
+      <c r="F17" s="2">
+        <v>67.448999999999998</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.01</v>
+      </c>
+      <c r="H17" s="4">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0.19900000000000001</v>
+      </c>
+      <c r="J17" s="4">
+        <v>0.46200000000000002</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="16"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="16"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="18"/>
+      <c r="A19" s="17"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="19"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="20"/>
+      <c r="A20" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" s="21"/>
       <c r="C20" s="10" t="s">
         <v>2</v>
       </c>
@@ -1120,10 +1130,10 @@
       <c r="J20" s="11"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="5">
         <v>100</v>
       </c>
@@ -1150,74 +1160,74 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="2" t="e">
+      <c r="A22" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="2">
         <f>AVERAGE(C8:C17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D22" s="2" t="e">
-        <f>AVERAGE(D8:D17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E22" s="2" t="e">
-        <f>AVERAGE(E8:E17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="2" t="e">
-        <f>AVERAGE(F8:F17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G22" s="4" t="e">
-        <f>AVERAGE(G8:G17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H22" s="4" t="e">
-        <f>AVERAGE(H8:H17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I22" s="4" t="e">
-        <f>AVERAGE(I8:I17)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J22" s="4" t="e">
-        <f>AVERAGE(J8:J17)</f>
-        <v>#DIV/0!</v>
+        <v>1.1239999999999999</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" ref="D22:J22" si="0">AVERAGE(D8:D17)</f>
+        <v>8.5699000000000005</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="0"/>
+        <v>28.633499999999998</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" si="0"/>
+        <v>67.565599999999989</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999985E-3</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="0"/>
+        <v>6.6700000000000009E-2</v>
+      </c>
+      <c r="I22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.20270000000000002</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="0"/>
+        <v>0.46239999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="16"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="18"/>
+      <c r="A24" s="17"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="19"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" s="20"/>
+      <c r="A25" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="21"/>
       <c r="C25" s="25" t="s">
         <v>6</v>
       </c>
@@ -1230,10 +1240,10 @@
       <c r="J25" s="27"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="23">
         <v>100</v>
       </c>
@@ -1252,30 +1262,30 @@
       <c r="J26" s="23"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="19"/>
-      <c r="C27" s="22" t="e">
+      <c r="A27" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="24">
         <f>C22/G22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22" t="e">
+        <v>112.4</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24">
         <f>D22/H22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22" t="e">
+        <v>128.48425787106447</v>
+      </c>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24">
         <f>E22/I22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22" t="e">
+        <v>141.26048347311294</v>
+      </c>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24">
         <f>F22/J22</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="22"/>
+        <v>146.11937716262975</v>
+      </c>
+      <c r="J27" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="28">

--- a/Time 3D/Time 3D — копия.xlsx
+++ b/Time 3D/Time 3D — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\Time 3D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8318845A-8CAE-4CE6-985B-A2D5F29002E6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA101579-D18A-4C1D-BC94-1B3898A5C50A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -403,6 +403,1152 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Ускорение производительности</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1680" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Оболочка Мандельброта 3D</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$26:$J$26</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$26,Sheet1!$E$26,Sheet1!$G$26,Sheet1!$I$26)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Sheet1!$C$27:$J$27</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(Sheet1!$C$27,Sheet1!$E$27,Sheet1!$G$27,Sheet1!$I$27)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>112.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>128.48425787106447</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.26048347311294</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>146.11937716262975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-87CF-47FB-92FD-E01A76F7F51A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="t"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="386921663"/>
+        <c:axId val="371479071"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="386921663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Сторона квадрата в пикселях для вычисления</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="371479071"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="371479071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>Время на </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU / </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ru-RU"/>
+                  <a:t>время на </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>GPU</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="386921663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>140969</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>402540</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>158616</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C10B8BE-5BC2-4B75-BFD0-E385B3079B1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -668,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="W28" sqref="W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1320,5 +2466,6 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Time 3D/Time 3D — копия.xlsx
+++ b/Time 3D/Time 3D — копия.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ZDiplom\Time 3D\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA101579-D18A-4C1D-BC94-1B3898A5C50A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F397F91-1D8B-4E16-8267-48530389D7B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -333,16 +333,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -363,19 +358,12 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -384,6 +372,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -678,7 +678,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="ru-RU"/>
-                  <a:t>Сторона квадрата в пикселях для вычисления</a:t>
+                  <a:t>Сторона куба в пикселях для вычисления</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1815,7 +1815,7 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="W28" sqref="W28"/>
+      <selection activeCell="W20" sqref="W20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1827,82 +1827,82 @@
       <c r="A1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="11" t="s">
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="13"/>
+      <c r="B7" s="27"/>
       <c r="C7" s="5">
         <v>100</v>
       </c>
@@ -1929,7 +1929,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="12" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="1">
@@ -1961,7 +1961,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="20"/>
+      <c r="A9" s="12"/>
       <c r="B9" s="1">
         <v>2</v>
       </c>
@@ -1991,7 +1991,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="20"/>
+      <c r="A10" s="12"/>
       <c r="B10" s="1">
         <v>3</v>
       </c>
@@ -2021,7 +2021,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="20"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1">
         <v>4</v>
       </c>
@@ -2051,7 +2051,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="20"/>
+      <c r="A12" s="12"/>
       <c r="B12" s="1">
         <v>5</v>
       </c>
@@ -2082,7 +2082,7 @@
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="20"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="1">
         <v>6</v>
       </c>
@@ -2112,7 +2112,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="20"/>
+      <c r="A14" s="12"/>
       <c r="B14" s="1">
         <v>7</v>
       </c>
@@ -2142,7 +2142,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="20"/>
+      <c r="A15" s="12"/>
       <c r="B15" s="1">
         <v>8</v>
       </c>
@@ -2172,7 +2172,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="20"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="1">
         <v>9</v>
       </c>
@@ -2202,7 +2202,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="20"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="1">
         <v>10</v>
       </c>
@@ -2232,54 +2232,54 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="16"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="15"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="17"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18"/>
-      <c r="J19" s="19"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="18"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B20" s="21"/>
-      <c r="C20" s="10" t="s">
+      <c r="B20" s="19"/>
+      <c r="C20" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="11" t="s">
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="22" t="s">
+      <c r="A21" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="5">
         <v>100</v>
       </c>
@@ -2306,10 +2306,10 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="2">
         <f>AVERAGE(C8:C17)</f>
         <v>1.1239999999999999</v>
@@ -2344,97 +2344,111 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="16"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="15"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="19"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="18"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B25" s="21"/>
-      <c r="C25" s="25" t="s">
+      <c r="B25" s="19"/>
+      <c r="C25" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="27"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="23"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="22" t="s">
+      <c r="A26" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="23">
+      <c r="B26" s="20"/>
+      <c r="C26" s="10">
         <v>100</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23">
+      <c r="D26" s="10"/>
+      <c r="E26" s="10">
         <v>200</v>
       </c>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23">
+      <c r="F26" s="10"/>
+      <c r="G26" s="10">
         <v>300</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23">
+      <c r="H26" s="10"/>
+      <c r="I26" s="10">
         <v>400</v>
       </c>
-      <c r="J26" s="23"/>
+      <c r="J26" s="10"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="24">
+      <c r="B27" s="12"/>
+      <c r="C27" s="11">
         <f>C22/G22</f>
         <v>112.4</v>
       </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24">
+      <c r="D27" s="11"/>
+      <c r="E27" s="11">
         <f>D22/H22</f>
         <v>128.48425787106447</v>
       </c>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24">
+      <c r="F27" s="11"/>
+      <c r="G27" s="11">
         <f>E22/I22</f>
         <v>141.26048347311294</v>
       </c>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24">
+      <c r="H27" s="11"/>
+      <c r="I27" s="11">
         <f>F22/J22</f>
         <v>146.11937716262975</v>
       </c>
-      <c r="J27" s="24"/>
+      <c r="J27" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="A18:J19"/>
+    <mergeCell ref="A8:A17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="G20:J20"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
     <mergeCell ref="A22:B22"/>
@@ -2449,20 +2463,6 @@
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C25:J25"/>
-    <mergeCell ref="A18:J19"/>
-    <mergeCell ref="A8:A17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:B7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
